--- a/data/input_excel/DBLP_toxicity_detector.xlsx
+++ b/data/input_excel/DBLP_toxicity_detector.xlsx
@@ -375,13 +375,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <cols>
     <col min="1" max="1" width="16.83203125" customWidth="1"/>
-    <col min="2" max="2" width="24.83203125" customWidth="1"/>
+    <col min="2" max="2" width="93.83203125" customWidth="1"/>
     <col min="3" max="3" width="26.83203125" customWidth="1"/>
     <col min="4" max="4" width="93.83203125" customWidth="1"/>
     <col min="5" max="5" width="7.83203125" customWidth="1"/>
@@ -391,8 +391,8 @@
     <col min="9" max="9" width="41.83203125" customWidth="1"/>
     <col min="10" max="10" width="128.83203125" customWidth="1"/>
     <col min="11" max="11" width="14.83203125" customWidth="1"/>
-    <col min="12" max="12" width="97.83203125" customWidth="1"/>
-    <col min="13" max="13" width="31.83203125" customWidth="1"/>
+    <col min="12" max="12" width="101.83203125" customWidth="1"/>
+    <col min="13" max="13" width="33.83203125" customWidth="1"/>
     <col min="14" max="14" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -445,40 +445,40 @@
         <v>Conference Paper</v>
       </c>
       <c r="B2" t="str">
-        <v>Sarker J</v>
+        <v>Costa-jussà MR,Meglioli MC,Andrews P,Dale D,Hansanti P,Kalbassi E,Mourachko A,Ropers C,Wood C</v>
       </c>
       <c r="C2" t="str">
-        <v/>
+        <v>Ku LW,Martins A,Srikumar V</v>
       </c>
       <c r="D2" t="str">
-        <v>'Who built this crap?' Developing a Software Engineering Domain Specific Toxicity Detector</v>
+        <v>MuTox: Universal MUltilingual Audio-based TOXicity Dataset and Zero-shot Detector</v>
       </c>
       <c r="E2" t="str">
         <v/>
       </c>
       <c r="F2" t="str">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="G2" t="str">
         <v/>
       </c>
       <c r="H2" t="str">
-        <v>200:1-200:3</v>
+        <v>5725-5734</v>
       </c>
       <c r="I2" t="str">
-        <v>ACM</v>
+        <v>Association for Computational Linguistics</v>
       </c>
       <c r="J2" t="str">
-        <v>37th IEEE/ACM International Conference on Automated Software Engineering, ASE 2022, Rochester, MI, USA, October 10-14, 2022</v>
+        <v>Findings of the Association for Computational Linguistics, ACL 2024, Bangkok, Thailand and virtual meeting, August 11-16, 2024</v>
       </c>
       <c r="K2" t="str">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="L2" t="str">
-        <v>https://doi.org/10.1145/3551349.3559508;http://dx.doi.org/10.1145/3551349.3559508</v>
+        <v>https://doi.org/10.18653/v1/2024.findings-acl.340;http://dx.doi.org/10.18653/V1/2024.FINDINGS-ACL.340</v>
       </c>
       <c r="M2" t="str">
-        <v>10.1145/3551349.3559508</v>
+        <v>10.18653/V1/2024.FINDINGS-ACL.340</v>
       </c>
       <c r="N2" t="str">
         <v/>
@@ -486,46 +486,46 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Conference Paper</v>
+        <v>Journal Article</v>
       </c>
       <c r="B3" t="str">
-        <v>Sarker J,Turzo AK,Bosu A</v>
+        <v>Costa-jussà MR,Meglioli MC,Andrews P,Dale D,Hansanti P,Kalbassi E,Mourachko A,Ropers C,Wood C</v>
       </c>
       <c r="C3" t="str">
         <v/>
       </c>
       <c r="D3" t="str">
-        <v>A Benchmark Study of the Contemporary Toxicity Detectors on Software Engineering Interactions</v>
+        <v>MuTox: Universal MUltilingual Audio-based TOXicity Dataset and Zero-shot Detector</v>
       </c>
       <c r="E3" t="str">
-        <v/>
+        <v>CoRR</v>
       </c>
       <c r="F3" t="str">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="G3" t="str">
-        <v/>
+        <v>abs/2401.05060</v>
       </c>
       <c r="H3" t="str">
-        <v>218-227</v>
+        <v/>
       </c>
       <c r="I3" t="str">
-        <v>IEEE</v>
+        <v/>
       </c>
       <c r="J3" t="str">
-        <v>27th Asia-Pacific Software Engineering Conference, APSEC 2020, Singapore, December 1-4, 2020</v>
+        <v/>
       </c>
       <c r="K3" t="str">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="L3" t="str">
-        <v>https://doi.org/10.1109/APSEC51365.2020.00030;http://dx.doi.org/10.1109/APSEC51365.2020.00030</v>
+        <v>https://doi.org/10.48550/arXiv.2401.05060;http://dx.doi.org/10.48550/ARXIV.2401.05060</v>
       </c>
       <c r="M3" t="str">
-        <v>10.1109/APSEC51365.2020.00030</v>
+        <v>10.48550/ARXIV.2401.05060</v>
       </c>
       <c r="N3" t="str">
-        <v/>
+        <v>2401.05060</v>
       </c>
     </row>
     <row r="4">
@@ -533,40 +533,40 @@
         <v>Conference Paper</v>
       </c>
       <c r="B4" t="str">
-        <v>Han X,Tsvetkov Y</v>
+        <v>Sarker J</v>
       </c>
       <c r="C4" t="str">
-        <v>Webber B,Cohn T,He Y,Liu Y</v>
+        <v/>
       </c>
       <c r="D4" t="str">
-        <v>Fortifying Toxic Speech Detectors Against Veiled Toxicity</v>
+        <v>'Who built this crap?' Developing a Software Engineering Domain Specific Toxicity Detector</v>
       </c>
       <c r="E4" t="str">
         <v/>
       </c>
       <c r="F4" t="str">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G4" t="str">
         <v/>
       </c>
       <c r="H4" t="str">
-        <v>7732-7739</v>
+        <v>200:1-200:3</v>
       </c>
       <c r="I4" t="str">
-        <v>Association for Computational Linguistics</v>
+        <v>ACM</v>
       </c>
       <c r="J4" t="str">
-        <v>Proceedings of the 2020 Conference on Empirical Methods in Natural Language Processing, EMNLP 2020, Online, November 16-20, 2020</v>
+        <v>37th IEEE/ACM International Conference on Automated Software Engineering, ASE 2022, Rochester, MI, USA, October 10-14, 2022</v>
       </c>
       <c r="K4" t="str">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="L4" t="str">
-        <v>https://doi.org/10.18653/v1/2020.emnlp-main.622;http://dx.doi.org/10.18653/V1/2020.EMNLP-MAIN.622</v>
+        <v>https://doi.org/10.1145/3551349.3559508;http://dx.doi.org/10.1145/3551349.3559508</v>
       </c>
       <c r="M4" t="str">
-        <v>10.18653/V1/2020.EMNLP-MAIN.622</v>
+        <v>10.1145/3551349.3559508</v>
       </c>
       <c r="N4" t="str">
         <v/>
@@ -574,7 +574,7 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Journal Article</v>
+        <v>Conference Paper</v>
       </c>
       <c r="B5" t="str">
         <v>Sarker J,Turzo AK,Bosu A</v>
@@ -586,83 +586,171 @@
         <v>A Benchmark Study of the Contemporary Toxicity Detectors on Software Engineering Interactions</v>
       </c>
       <c r="E5" t="str">
-        <v>CoRR</v>
+        <v/>
       </c>
       <c r="F5" t="str">
         <v>2020</v>
       </c>
       <c r="G5" t="str">
-        <v>abs/2009.09331</v>
+        <v/>
       </c>
       <c r="H5" t="str">
-        <v/>
+        <v>218-227</v>
       </c>
       <c r="I5" t="str">
-        <v/>
+        <v>IEEE</v>
       </c>
       <c r="J5" t="str">
-        <v/>
+        <v>27th Asia-Pacific Software Engineering Conference, APSEC 2020, Singapore, December 1-4, 2020</v>
       </c>
       <c r="K5" t="str">
         <v>2020</v>
       </c>
       <c r="L5" t="str">
-        <v>https://arxiv.org/abs/2009.09331</v>
+        <v>https://doi.org/10.1109/APSEC51365.2020.00030;http://dx.doi.org/10.1109/APSEC51365.2020.00030</v>
       </c>
       <c r="M5" t="str">
-        <v/>
+        <v>10.1109/APSEC51365.2020.00030</v>
       </c>
       <c r="N5" t="str">
-        <v>2009.09331</v>
+        <v/>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Journal Article</v>
+        <v>Conference Paper</v>
       </c>
       <c r="B6" t="str">
         <v>Han X,Tsvetkov Y</v>
       </c>
       <c r="C6" t="str">
-        <v/>
+        <v>Webber B,Cohn T,He Y,Liu Y</v>
       </c>
       <c r="D6" t="str">
         <v>Fortifying Toxic Speech Detectors Against Veiled Toxicity</v>
       </c>
       <c r="E6" t="str">
-        <v>CoRR</v>
+        <v/>
       </c>
       <c r="F6" t="str">
         <v>2020</v>
       </c>
       <c r="G6" t="str">
-        <v>abs/2010.03154</v>
+        <v/>
       </c>
       <c r="H6" t="str">
-        <v/>
+        <v>7732-7739</v>
       </c>
       <c r="I6" t="str">
-        <v/>
+        <v>Association for Computational Linguistics</v>
       </c>
       <c r="J6" t="str">
-        <v/>
+        <v>Proceedings of the 2020 Conference on Empirical Methods in Natural Language Processing, EMNLP 2020, Online, November 16-20, 2020</v>
       </c>
       <c r="K6" t="str">
         <v>2020</v>
       </c>
       <c r="L6" t="str">
+        <v>https://doi.org/10.18653/v1/2020.emnlp-main.622;http://dx.doi.org/10.18653/V1/2020.EMNLP-MAIN.622</v>
+      </c>
+      <c r="M6" t="str">
+        <v>10.18653/V1/2020.EMNLP-MAIN.622</v>
+      </c>
+      <c r="N6" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Journal Article</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Sarker J,Turzo AK,Bosu A</v>
+      </c>
+      <c r="C7" t="str">
+        <v/>
+      </c>
+      <c r="D7" t="str">
+        <v>A Benchmark Study of the Contemporary Toxicity Detectors on Software Engineering Interactions</v>
+      </c>
+      <c r="E7" t="str">
+        <v>CoRR</v>
+      </c>
+      <c r="F7" t="str">
+        <v>2020</v>
+      </c>
+      <c r="G7" t="str">
+        <v>abs/2009.09331</v>
+      </c>
+      <c r="H7" t="str">
+        <v/>
+      </c>
+      <c r="I7" t="str">
+        <v/>
+      </c>
+      <c r="J7" t="str">
+        <v/>
+      </c>
+      <c r="K7" t="str">
+        <v>2020</v>
+      </c>
+      <c r="L7" t="str">
+        <v>https://arxiv.org/abs/2009.09331</v>
+      </c>
+      <c r="M7" t="str">
+        <v/>
+      </c>
+      <c r="N7" t="str">
+        <v>2009.09331</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Journal Article</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Han X,Tsvetkov Y</v>
+      </c>
+      <c r="C8" t="str">
+        <v/>
+      </c>
+      <c r="D8" t="str">
+        <v>Fortifying Toxic Speech Detectors Against Veiled Toxicity</v>
+      </c>
+      <c r="E8" t="str">
+        <v>CoRR</v>
+      </c>
+      <c r="F8" t="str">
+        <v>2020</v>
+      </c>
+      <c r="G8" t="str">
+        <v>abs/2010.03154</v>
+      </c>
+      <c r="H8" t="str">
+        <v/>
+      </c>
+      <c r="I8" t="str">
+        <v/>
+      </c>
+      <c r="J8" t="str">
+        <v/>
+      </c>
+      <c r="K8" t="str">
+        <v>2020</v>
+      </c>
+      <c r="L8" t="str">
         <v>https://arxiv.org/abs/2010.03154</v>
       </c>
-      <c r="M6" t="str">
-        <v/>
-      </c>
-      <c r="N6" t="str">
+      <c r="M8" t="str">
+        <v/>
+      </c>
+      <c r="N8" t="str">
         <v>2010.03154</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:N6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:N8"/>
   </ignoredErrors>
 </worksheet>
 </file>